--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-place-hebergement-theorique.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
